--- a/RE/RPA09_외교부레포트_차수빈/Data/Config.xlsx
+++ b/RE/RPA09_외교부레포트_차수빈/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C드라이브\UIPATH\RE\RPA09_외교부레포트_차수빈\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA987ED7-CE57-43DF-8109-9C9CED76CC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB1F230-7044-4C82-9E12-E2EB9EA9E0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
